--- a/Sufficient data/forecast_summary_B083TZ68H1.xlsx
+++ b/Sufficient data/forecast_summary_B083TZ68H1.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,607 +425,1084 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Amazon Mean Forecast</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Amazon P70 Forecast</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Amazon P80 Forecast</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Amazon P90 Forecast</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Diff_Mean Forecast</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Pct_Mean Forecast</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Diff_P70 Forecast</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Pct_P70 Forecast</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Diff_P80 Forecast</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Pct_P80 Forecast</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Diff_P90 Forecast</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Pct_P90 Forecast</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>ASIN</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Product Title</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
           <t>Week</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>ASIN</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Prophet Forecast</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Amazon Mean Forecast</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Amazon P70 Forecast</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Amazon P80 Forecast</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Amazon P90 Forecast</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Product Title</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>is_holiday_week</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>745</v>
+      </c>
+      <c r="B2" t="n">
+        <v>727</v>
+      </c>
+      <c r="C2" t="n">
+        <v>865</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1208</v>
+      </c>
+      <c r="F2" t="n">
+        <v>18</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.475928473177441</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-120</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-13.87283236994219</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-255</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-25.5</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-463</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-38.32781456953642</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>B083TZ68H1</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>B650 EAGLE AX</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
+        <v/>
+      </c>
+      <c r="Q2" t="inlineStr">
         <is>
           <t>W01</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="R2" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>724</v>
+      </c>
+      <c r="B3" t="n">
+        <v>674</v>
+      </c>
+      <c r="C3" t="n">
+        <v>815</v>
+      </c>
+      <c r="D3" t="n">
+        <v>972</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1220</v>
+      </c>
+      <c r="F3" t="n">
+        <v>50</v>
+      </c>
+      <c r="G3" t="n">
+        <v>7.418397626112759</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-91</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-11.16564417177914</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-248</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-25.51440329218107</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-496</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-40.65573770491803</v>
+      </c>
+      <c r="N3" t="inlineStr">
         <is>
           <t>B083TZ68H1</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>827</v>
-      </c>
-      <c r="D2" t="n">
-        <v>727</v>
-      </c>
-      <c r="E2" t="n">
-        <v>865</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1208</v>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="P3" t="n">
+        <v/>
+      </c>
+      <c r="Q3" t="inlineStr">
         <is>
           <t>W02</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="R3" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>709</v>
+      </c>
+      <c r="B4" t="n">
+        <v>559</v>
+      </c>
+      <c r="C4" t="n">
+        <v>677</v>
+      </c>
+      <c r="D4" t="n">
+        <v>809</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1018</v>
+      </c>
+      <c r="F4" t="n">
+        <v>150</v>
+      </c>
+      <c r="G4" t="n">
+        <v>26.83363148479427</v>
+      </c>
+      <c r="H4" t="n">
+        <v>32</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4.726735598227474</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-100</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-12.36093943139679</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-309</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-30.35363457760315</v>
+      </c>
+      <c r="N4" t="inlineStr">
         <is>
           <t>B083TZ68H1</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>802.5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>674</v>
-      </c>
-      <c r="E3" t="n">
-        <v>815</v>
-      </c>
-      <c r="F3" t="n">
-        <v>972</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1220</v>
-      </c>
-      <c r="H3" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="P4" t="n">
+        <v/>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>W03</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="R4" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>948</v>
+      </c>
+      <c r="B5" t="n">
+        <v>472</v>
+      </c>
+      <c r="C5" t="n">
+        <v>575</v>
+      </c>
+      <c r="D5" t="n">
+        <v>701</v>
+      </c>
+      <c r="E5" t="n">
+        <v>904</v>
+      </c>
+      <c r="F5" t="n">
+        <v>476</v>
+      </c>
+      <c r="G5" t="n">
+        <v>100.8474576271186</v>
+      </c>
+      <c r="H5" t="n">
+        <v>373</v>
+      </c>
+      <c r="I5" t="n">
+        <v>64.8695652173913</v>
+      </c>
+      <c r="J5" t="n">
+        <v>247</v>
+      </c>
+      <c r="K5" t="n">
+        <v>35.23537803138373</v>
+      </c>
+      <c r="L5" t="n">
+        <v>44</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4.867256637168142</v>
+      </c>
+      <c r="N5" t="inlineStr">
         <is>
           <t>B083TZ68H1</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>731.7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>559</v>
-      </c>
-      <c r="E4" t="n">
-        <v>677</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>B650 EAGLE AX</t>
+        </is>
+      </c>
+      <c r="P5" t="n">
+        <v/>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>W04</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>802</v>
+      </c>
+      <c r="B6" t="n">
+        <v>456</v>
+      </c>
+      <c r="C6" t="n">
+        <v>555</v>
+      </c>
+      <c r="D6" t="n">
+        <v>675</v>
+      </c>
+      <c r="E6" t="n">
+        <v>866</v>
+      </c>
+      <c r="F6" t="n">
+        <v>346</v>
+      </c>
+      <c r="G6" t="n">
+        <v>75.87719298245614</v>
+      </c>
+      <c r="H6" t="n">
+        <v>247</v>
+      </c>
+      <c r="I6" t="n">
+        <v>44.5045045045045</v>
+      </c>
+      <c r="J6" t="n">
+        <v>127</v>
+      </c>
+      <c r="K6" t="n">
+        <v>18.81481481481481</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-64</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-7.390300230946882</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>B083TZ68H1</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>B650 EAGLE AX</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v/>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>W05</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>670</v>
+      </c>
+      <c r="B7" t="n">
+        <v>453</v>
+      </c>
+      <c r="C7" t="n">
+        <v>551</v>
+      </c>
+      <c r="D7" t="n">
+        <v>665</v>
+      </c>
+      <c r="E7" t="n">
+        <v>847</v>
+      </c>
+      <c r="F7" t="n">
+        <v>217</v>
+      </c>
+      <c r="G7" t="n">
+        <v>47.90286975717439</v>
+      </c>
+      <c r="H7" t="n">
+        <v>119</v>
+      </c>
+      <c r="I7" t="n">
+        <v>21.59709618874773</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.7518796992481203</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-177</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-20.89728453364817</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>B083TZ68H1</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>B650 EAGLE AX</t>
+        </is>
+      </c>
+      <c r="P7" t="n">
+        <v/>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>W06</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>710</v>
+      </c>
+      <c r="B8" t="n">
+        <v>433</v>
+      </c>
+      <c r="C8" t="n">
+        <v>528</v>
+      </c>
+      <c r="D8" t="n">
+        <v>646</v>
+      </c>
+      <c r="E8" t="n">
+        <v>835</v>
+      </c>
+      <c r="F8" t="n">
+        <v>277</v>
+      </c>
+      <c r="G8" t="n">
+        <v>63.97228637413394</v>
+      </c>
+      <c r="H8" t="n">
+        <v>182</v>
+      </c>
+      <c r="I8" t="n">
+        <v>34.46969696969697</v>
+      </c>
+      <c r="J8" t="n">
+        <v>64</v>
+      </c>
+      <c r="K8" t="n">
+        <v>9.907120743034056</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-125</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-14.97005988023952</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>B083TZ68H1</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>B650 EAGLE AX</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v/>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>W07</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>808</v>
+      </c>
+      <c r="B9" t="n">
+        <v>426</v>
+      </c>
+      <c r="C9" t="n">
+        <v>519</v>
+      </c>
+      <c r="D9" t="n">
+        <v>630</v>
+      </c>
+      <c r="E9" t="n">
         <v>809</v>
       </c>
-      <c r="G4" t="n">
-        <v>1018</v>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="F9" t="n">
+        <v>382</v>
+      </c>
+      <c r="G9" t="n">
+        <v>89.67136150234741</v>
+      </c>
+      <c r="H9" t="n">
+        <v>289</v>
+      </c>
+      <c r="I9" t="n">
+        <v>55.68400770712909</v>
+      </c>
+      <c r="J9" t="n">
+        <v>178</v>
+      </c>
+      <c r="K9" t="n">
+        <v>28.25396825396825</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-0.1236093943139678</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>B083TZ68H1</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
         <is>
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>W04</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
+      <c r="P9" t="n">
+        <v/>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>W08</t>
+        </is>
+      </c>
+      <c r="R9" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>937</v>
+      </c>
+      <c r="B10" t="n">
+        <v>427</v>
+      </c>
+      <c r="C10" t="n">
+        <v>519</v>
+      </c>
+      <c r="D10" t="n">
+        <v>628</v>
+      </c>
+      <c r="E10" t="n">
+        <v>802</v>
+      </c>
+      <c r="F10" t="n">
+        <v>510</v>
+      </c>
+      <c r="G10" t="n">
+        <v>119.4379391100703</v>
+      </c>
+      <c r="H10" t="n">
+        <v>418</v>
+      </c>
+      <c r="I10" t="n">
+        <v>80.53949903660886</v>
+      </c>
+      <c r="J10" t="n">
+        <v>309</v>
+      </c>
+      <c r="K10" t="n">
+        <v>49.20382165605096</v>
+      </c>
+      <c r="L10" t="n">
+        <v>135</v>
+      </c>
+      <c r="M10" t="n">
+        <v>16.83291770573566</v>
+      </c>
+      <c r="N10" t="inlineStr">
         <is>
           <t>B083TZ68H1</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>834</v>
-      </c>
-      <c r="D5" t="n">
-        <v>472</v>
-      </c>
-      <c r="E5" t="n">
-        <v>575</v>
-      </c>
-      <c r="F5" t="n">
-        <v>701</v>
-      </c>
-      <c r="G5" t="n">
-        <v>904</v>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>W05</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
+      <c r="P10" t="n">
+        <v/>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>W09</t>
+        </is>
+      </c>
+      <c r="R10" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1308</v>
+      </c>
+      <c r="B11" t="n">
+        <v>406</v>
+      </c>
+      <c r="C11" t="n">
+        <v>495</v>
+      </c>
+      <c r="D11" t="n">
+        <v>606</v>
+      </c>
+      <c r="E11" t="n">
+        <v>785</v>
+      </c>
+      <c r="F11" t="n">
+        <v>902</v>
+      </c>
+      <c r="G11" t="n">
+        <v>222.1674876847291</v>
+      </c>
+      <c r="H11" t="n">
+        <v>813</v>
+      </c>
+      <c r="I11" t="n">
+        <v>164.2424242424242</v>
+      </c>
+      <c r="J11" t="n">
+        <v>702</v>
+      </c>
+      <c r="K11" t="n">
+        <v>115.8415841584158</v>
+      </c>
+      <c r="L11" t="n">
+        <v>523</v>
+      </c>
+      <c r="M11" t="n">
+        <v>66.62420382165605</v>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>B083TZ68H1</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>736.4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>456</v>
-      </c>
-      <c r="E6" t="n">
-        <v>555</v>
-      </c>
-      <c r="F6" t="n">
-        <v>675</v>
-      </c>
-      <c r="G6" t="n">
-        <v>866</v>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>W06</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
+      <c r="P11" t="n">
+        <v/>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>W10</t>
+        </is>
+      </c>
+      <c r="R11" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>907</v>
+      </c>
+      <c r="B12" t="n">
+        <v>399</v>
+      </c>
+      <c r="C12" t="n">
+        <v>488</v>
+      </c>
+      <c r="D12" t="n">
+        <v>609</v>
+      </c>
+      <c r="E12" t="n">
+        <v>805</v>
+      </c>
+      <c r="F12" t="n">
+        <v>508</v>
+      </c>
+      <c r="G12" t="n">
+        <v>127.3182957393484</v>
+      </c>
+      <c r="H12" t="n">
+        <v>419</v>
+      </c>
+      <c r="I12" t="n">
+        <v>85.86065573770492</v>
+      </c>
+      <c r="J12" t="n">
+        <v>298</v>
+      </c>
+      <c r="K12" t="n">
+        <v>48.93267651888342</v>
+      </c>
+      <c r="L12" t="n">
+        <v>102</v>
+      </c>
+      <c r="M12" t="n">
+        <v>12.67080745341615</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>B083TZ68H1</t>
         </is>
       </c>
-      <c r="C7" t="n">
-        <v>653.6</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>B650 EAGLE AX</t>
+        </is>
+      </c>
+      <c r="P12" t="n">
+        <v/>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>W11</t>
+        </is>
+      </c>
+      <c r="R12" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>991</v>
+      </c>
+      <c r="B13" t="n">
+        <v>401</v>
+      </c>
+      <c r="C13" t="n">
+        <v>490</v>
+      </c>
+      <c r="D13" t="n">
+        <v>611</v>
+      </c>
+      <c r="E13" t="n">
+        <v>807</v>
+      </c>
+      <c r="F13" t="n">
+        <v>590</v>
+      </c>
+      <c r="G13" t="n">
+        <v>147.1321695760599</v>
+      </c>
+      <c r="H13" t="n">
+        <v>501</v>
+      </c>
+      <c r="I13" t="n">
+        <v>102.2448979591837</v>
+      </c>
+      <c r="J13" t="n">
+        <v>380</v>
+      </c>
+      <c r="K13" t="n">
+        <v>62.19312602291326</v>
+      </c>
+      <c r="L13" t="n">
+        <v>184</v>
+      </c>
+      <c r="M13" t="n">
+        <v>22.8004956629492</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>B083TZ68H1</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>B650 EAGLE AX</t>
+        </is>
+      </c>
+      <c r="P13" t="n">
+        <v/>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>W12</t>
+        </is>
+      </c>
+      <c r="R13" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>939</v>
+      </c>
+      <c r="B14" t="n">
+        <v>406</v>
+      </c>
+      <c r="C14" t="n">
+        <v>496</v>
+      </c>
+      <c r="D14" t="n">
+        <v>613</v>
+      </c>
+      <c r="E14" t="n">
+        <v>803</v>
+      </c>
+      <c r="F14" t="n">
+        <v>533</v>
+      </c>
+      <c r="G14" t="n">
+        <v>131.2807881773399</v>
+      </c>
+      <c r="H14" t="n">
+        <v>443</v>
+      </c>
+      <c r="I14" t="n">
+        <v>89.31451612903226</v>
+      </c>
+      <c r="J14" t="n">
+        <v>326</v>
+      </c>
+      <c r="K14" t="n">
+        <v>53.1810766721044</v>
+      </c>
+      <c r="L14" t="n">
+        <v>136</v>
+      </c>
+      <c r="M14" t="n">
+        <v>16.93648816936488</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>B083TZ68H1</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>B650 EAGLE AX</t>
+        </is>
+      </c>
+      <c r="P14" t="n">
+        <v/>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>W13</t>
+        </is>
+      </c>
+      <c r="R14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>949</v>
+      </c>
+      <c r="B15" t="n">
+        <v>382</v>
+      </c>
+      <c r="C15" t="n">
+        <v>467</v>
+      </c>
+      <c r="D15" t="n">
+        <v>583</v>
+      </c>
+      <c r="E15" t="n">
+        <v>774</v>
+      </c>
+      <c r="F15" t="n">
+        <v>567</v>
+      </c>
+      <c r="G15" t="n">
+        <v>148.4293193717277</v>
+      </c>
+      <c r="H15" t="n">
+        <v>482</v>
+      </c>
+      <c r="I15" t="n">
+        <v>103.2119914346895</v>
+      </c>
+      <c r="J15" t="n">
+        <v>366</v>
+      </c>
+      <c r="K15" t="n">
+        <v>62.778730703259</v>
+      </c>
+      <c r="L15" t="n">
+        <v>175</v>
+      </c>
+      <c r="M15" t="n">
+        <v>22.60981912144703</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>B083TZ68H1</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>B650 EAGLE AX</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v/>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>W14</t>
+        </is>
+      </c>
+      <c r="R15" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>860</v>
+      </c>
+      <c r="B16" t="n">
+        <v>370</v>
+      </c>
+      <c r="C16" t="n">
         <v>453</v>
       </c>
-      <c r="E7" t="n">
-        <v>551</v>
-      </c>
-      <c r="F7" t="n">
-        <v>665</v>
-      </c>
-      <c r="G7" t="n">
-        <v>847</v>
-      </c>
-      <c r="H7" t="inlineStr">
+      <c r="D16" t="n">
+        <v>572</v>
+      </c>
+      <c r="E16" t="n">
+        <v>767</v>
+      </c>
+      <c r="F16" t="n">
+        <v>490</v>
+      </c>
+      <c r="G16" t="n">
+        <v>132.4324324324324</v>
+      </c>
+      <c r="H16" t="n">
+        <v>407</v>
+      </c>
+      <c r="I16" t="n">
+        <v>89.84547461368653</v>
+      </c>
+      <c r="J16" t="n">
+        <v>288</v>
+      </c>
+      <c r="K16" t="n">
+        <v>50.34965034965035</v>
+      </c>
+      <c r="L16" t="n">
+        <v>93</v>
+      </c>
+      <c r="M16" t="n">
+        <v>12.1251629726206</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>B083TZ68H1</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
         <is>
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>W07</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
+      <c r="P16" t="n">
+        <v/>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>W15</t>
+        </is>
+      </c>
+      <c r="R16" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>762</v>
+      </c>
+      <c r="B17" t="n">
+        <v>364</v>
+      </c>
+      <c r="C17" t="n">
+        <v>445</v>
+      </c>
+      <c r="D17" t="n">
+        <v>561</v>
+      </c>
+      <c r="E17" t="n">
+        <v>751</v>
+      </c>
+      <c r="F17" t="n">
+        <v>398</v>
+      </c>
+      <c r="G17" t="n">
+        <v>109.3406593406593</v>
+      </c>
+      <c r="H17" t="n">
+        <v>317</v>
+      </c>
+      <c r="I17" t="n">
+        <v>71.23595505617978</v>
+      </c>
+      <c r="J17" t="n">
+        <v>201</v>
+      </c>
+      <c r="K17" t="n">
+        <v>35.82887700534759</v>
+      </c>
+      <c r="L17" t="n">
+        <v>11</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.464713715046605</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>B083TZ68H1</t>
         </is>
       </c>
-      <c r="C8" t="n">
-        <v>670.2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>433</v>
-      </c>
-      <c r="E8" t="n">
-        <v>528</v>
-      </c>
-      <c r="F8" t="n">
-        <v>646</v>
-      </c>
-      <c r="G8" t="n">
-        <v>835</v>
-      </c>
-      <c r="H8" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I8" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>W08</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>B083TZ68H1</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>723.1999999999999</v>
-      </c>
-      <c r="D9" t="n">
-        <v>426</v>
-      </c>
-      <c r="E9" t="n">
-        <v>519</v>
-      </c>
-      <c r="F9" t="n">
-        <v>630</v>
-      </c>
-      <c r="G9" t="n">
-        <v>809</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>B650 EAGLE AX</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>W09</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>B083TZ68H1</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>799.8</v>
-      </c>
-      <c r="D10" t="n">
-        <v>427</v>
-      </c>
-      <c r="E10" t="n">
-        <v>519</v>
-      </c>
-      <c r="F10" t="n">
-        <v>628</v>
-      </c>
-      <c r="G10" t="n">
-        <v>802</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>B650 EAGLE AX</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>W10</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>B083TZ68H1</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>1014</v>
-      </c>
-      <c r="D11" t="n">
-        <v>406</v>
-      </c>
-      <c r="E11" t="n">
-        <v>495</v>
-      </c>
-      <c r="F11" t="n">
-        <v>606</v>
-      </c>
-      <c r="G11" t="n">
-        <v>785</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>B650 EAGLE AX</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>W11</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>B083TZ68H1</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>774.3</v>
-      </c>
-      <c r="D12" t="n">
-        <v>399</v>
-      </c>
-      <c r="E12" t="n">
-        <v>488</v>
-      </c>
-      <c r="F12" t="n">
-        <v>609</v>
-      </c>
-      <c r="G12" t="n">
-        <v>805</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>B650 EAGLE AX</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>W12</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>B083TZ68H1</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>825.5</v>
-      </c>
-      <c r="D13" t="n">
-        <v>401</v>
-      </c>
-      <c r="E13" t="n">
-        <v>490</v>
-      </c>
-      <c r="F13" t="n">
-        <v>611</v>
-      </c>
-      <c r="G13" t="n">
-        <v>807</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>B650 EAGLE AX</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>W13</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>B083TZ68H1</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>795.2</v>
-      </c>
-      <c r="D14" t="n">
-        <v>406</v>
-      </c>
-      <c r="E14" t="n">
-        <v>496</v>
-      </c>
-      <c r="F14" t="n">
-        <v>613</v>
-      </c>
-      <c r="G14" t="n">
-        <v>803</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>B650 EAGLE AX</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>W14</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>B083TZ68H1</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>790</v>
-      </c>
-      <c r="D15" t="n">
-        <v>382</v>
-      </c>
-      <c r="E15" t="n">
-        <v>467</v>
-      </c>
-      <c r="F15" t="n">
-        <v>583</v>
-      </c>
-      <c r="G15" t="n">
-        <v>774</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>B650 EAGLE AX</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>W15</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>B083TZ68H1</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>732.2</v>
-      </c>
-      <c r="D16" t="n">
-        <v>370</v>
-      </c>
-      <c r="E16" t="n">
-        <v>453</v>
-      </c>
-      <c r="F16" t="n">
-        <v>572</v>
-      </c>
-      <c r="G16" t="n">
-        <v>767</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>B650 EAGLE AX</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="P17" t="n">
+        <v/>
+      </c>
+      <c r="Q17" t="inlineStr">
         <is>
           <t>W16</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>B083TZ68H1</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>669.3</v>
-      </c>
-      <c r="D17" t="n">
-        <v>364</v>
-      </c>
-      <c r="E17" t="n">
-        <v>445</v>
-      </c>
-      <c r="F17" t="n">
-        <v>561</v>
-      </c>
-      <c r="G17" t="n">
-        <v>751</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>B650 EAGLE AX</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="R17" t="n">
         <v/>
       </c>
     </row>
@@ -1152,7 +1629,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>12379</t>
+          <t>13769</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1641,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5979</t>
+          <t>6116</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1653,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3195</t>
+          <t>3126</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1665,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1014</t>
+          <t>1308</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1689,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>654</t>
+          <t>670</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B083TZ68H1.xlsx
+++ b/Sufficient data/forecast_summary_B083TZ68H1.xlsx
@@ -1074,7 +1074,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1308</v>
+        <v>1020</v>
       </c>
       <c r="B11" t="n">
         <v>406</v>
@@ -1089,28 +1089,28 @@
         <v>785</v>
       </c>
       <c r="F11" t="n">
-        <v>902</v>
+        <v>614</v>
       </c>
       <c r="G11" t="n">
-        <v>222.1674876847291</v>
+        <v>151.2315270935961</v>
       </c>
       <c r="H11" t="n">
-        <v>813</v>
+        <v>525</v>
       </c>
       <c r="I11" t="n">
-        <v>164.2424242424242</v>
+        <v>106.0606060606061</v>
       </c>
       <c r="J11" t="n">
-        <v>702</v>
+        <v>414</v>
       </c>
       <c r="K11" t="n">
-        <v>115.8415841584158</v>
+        <v>68.31683168316832</v>
       </c>
       <c r="L11" t="n">
-        <v>523</v>
+        <v>235</v>
       </c>
       <c r="M11" t="n">
-        <v>66.62420382165605</v>
+        <v>29.93630573248408</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>13769</t>
+          <t>13481</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1308</t>
+          <t>1020</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B083TZ68H1.xlsx
+++ b/Sufficient data/forecast_summary_B083TZ68H1.xlsx
@@ -435,7 +435,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Forecast</t>
+          <t>Prophet Forecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>957</v>
+        <v>594.9</v>
       </c>
       <c r="D2" t="n">
         <v>980</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>520</v>
+        <v>450.1</v>
       </c>
       <c r="D3" t="n">
         <v>534</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>499</v>
+        <v>556.6</v>
       </c>
       <c r="D4" t="n">
         <v>517</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>511</v>
+        <v>371</v>
       </c>
       <c r="D5" t="n">
         <v>382</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>539</v>
+        <v>395.75</v>
       </c>
       <c r="D6" t="n">
         <v>364</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>539</v>
+        <v>404.25</v>
       </c>
       <c r="D7" t="n">
         <v>365</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>546</v>
+        <v>419.55</v>
       </c>
       <c r="D8" t="n">
         <v>365</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>545</v>
+        <v>394.2</v>
       </c>
       <c r="D9" t="n">
         <v>352</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>569</v>
+        <v>410.55</v>
       </c>
       <c r="D10" t="n">
         <v>348</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>614</v>
+        <v>458.75</v>
       </c>
       <c r="D11" t="n">
         <v>408</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>635</v>
+        <v>459.55</v>
       </c>
       <c r="D12" t="n">
         <v>458</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>644</v>
+        <v>463.95</v>
       </c>
       <c r="D13" t="n">
         <v>436</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>663</v>
+        <v>483.6</v>
       </c>
       <c r="D14" t="n">
         <v>437</v>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>683</v>
+        <v>465.75</v>
       </c>
       <c r="D15" t="n">
         <v>428</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>710</v>
+        <v>479.5</v>
       </c>
       <c r="D16" t="n">
         <v>416</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>733</v>
+        <v>496.25</v>
       </c>
       <c r="D17" t="n">
         <v>403</v>
@@ -1123,7 +1123,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Std Dev</t>
+          <t>Std Dev Sales</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1135,48 +1135,48 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Total Sales</t>
+          <t>Total Historical Sales</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>9084</t>
+          <t>9084 units</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4 Weeks Forecast</t>
+          <t>Total Forecast (16 Weeks)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2487</t>
+          <t>7304</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>8 Weeks Forecast</t>
+          <t>Total Forecast (8 Weeks)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4656</t>
+          <t>3586</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>16 Weeks Forecast</t>
+          <t>Total Forecast (4 Weeks)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>9907</t>
+          <t>1973</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>957</t>
+          <t>595</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>499</t>
+          <t>371</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024-12-15</t>
+          <t>2024-12-22</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B083TZ68H1.xlsx
+++ b/Sufficient data/forecast_summary_B083TZ68H1.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>594.9</v>
+        <v>329.3</v>
       </c>
       <c r="D2" t="n">
         <v>980</v>
@@ -500,8 +500,8 @@
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v/>
+      <c r="I2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>450.1</v>
+        <v>362.1</v>
       </c>
       <c r="D3" t="n">
         <v>534</v>
@@ -535,8 +535,8 @@
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v/>
+      <c r="I3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>556.6</v>
+        <v>376.3</v>
       </c>
       <c r="D4" t="n">
         <v>517</v>
@@ -570,8 +570,8 @@
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v/>
+      <c r="I4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>371</v>
+        <v>411.1</v>
       </c>
       <c r="D5" t="n">
         <v>382</v>
@@ -605,8 +605,8 @@
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v/>
+      <c r="I5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>395.75</v>
+        <v>340.9</v>
       </c>
       <c r="D6" t="n">
         <v>364</v>
@@ -640,8 +640,8 @@
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v/>
+      <c r="I6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>404.25</v>
+        <v>355.6</v>
       </c>
       <c r="D7" t="n">
         <v>365</v>
@@ -675,8 +675,8 @@
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v/>
+      <c r="I7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>419.55</v>
+        <v>404.3</v>
       </c>
       <c r="D8" t="n">
         <v>365</v>
@@ -710,8 +710,8 @@
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I8" t="n">
-        <v/>
+      <c r="I8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>394.2</v>
+        <v>472.6</v>
       </c>
       <c r="D9" t="n">
         <v>352</v>
@@ -745,8 +745,8 @@
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v/>
+      <c r="I9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>410.55</v>
+        <v>380.9</v>
       </c>
       <c r="D10" t="n">
         <v>348</v>
@@ -780,8 +780,8 @@
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I10" t="n">
-        <v/>
+      <c r="I10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>458.75</v>
+        <v>337.1</v>
       </c>
       <c r="D11" t="n">
         <v>408</v>
@@ -815,8 +815,8 @@
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I11" t="n">
-        <v/>
+      <c r="I11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>459.55</v>
+        <v>366.3</v>
       </c>
       <c r="D12" t="n">
         <v>458</v>
@@ -850,8 +850,8 @@
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v/>
+      <c r="I12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>463.95</v>
+        <v>487.1</v>
       </c>
       <c r="D13" t="n">
         <v>436</v>
@@ -885,8 +885,8 @@
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I13" t="n">
-        <v/>
+      <c r="I13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>483.6</v>
+        <v>462.9</v>
       </c>
       <c r="D14" t="n">
         <v>437</v>
@@ -920,8 +920,8 @@
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I14" t="n">
-        <v/>
+      <c r="I14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>465.75</v>
+        <v>421.1</v>
       </c>
       <c r="D15" t="n">
         <v>428</v>
@@ -955,8 +955,8 @@
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I15" t="n">
-        <v/>
+      <c r="I15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>479.5</v>
+        <v>381.8</v>
       </c>
       <c r="D16" t="n">
         <v>416</v>
@@ -990,8 +990,8 @@
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I16" t="n">
-        <v/>
+      <c r="I16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>496.25</v>
+        <v>445.6</v>
       </c>
       <c r="D17" t="n">
         <v>403</v>
@@ -1025,8 +1025,8 @@
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I17" t="n">
-        <v/>
+      <c r="I17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>7304</t>
+          <t>6335</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3586</t>
+          <t>3052</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1973</t>
+          <t>1479</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>487</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2025-02-16</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>329</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-12-01</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B083TZ68H1.xlsx
+++ b/Sufficient data/forecast_summary_B083TZ68H1.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>329.3</v>
+        <v>623.3</v>
       </c>
       <c r="D2" t="n">
         <v>980</v>
@@ -500,8 +500,8 @@
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
+      <c r="I2" t="n">
+        <v/>
       </c>
     </row>
     <row r="3">
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>362.1</v>
+        <v>522.3</v>
       </c>
       <c r="D3" t="n">
         <v>534</v>
@@ -535,8 +535,8 @@
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="I3" t="n">
+        <v/>
       </c>
     </row>
     <row r="4">
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>376.3</v>
+        <v>531.4</v>
       </c>
       <c r="D4" t="n">
         <v>517</v>
@@ -570,8 +570,8 @@
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="I4" t="n">
+        <v/>
       </c>
     </row>
     <row r="5">
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>411.1</v>
+        <v>525.7</v>
       </c>
       <c r="D5" t="n">
         <v>382</v>
@@ -605,8 +605,8 @@
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="I5" t="n">
+        <v/>
       </c>
     </row>
     <row r="6">
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>340.9</v>
+        <v>450.1</v>
       </c>
       <c r="D6" t="n">
         <v>364</v>
@@ -640,8 +640,8 @@
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="I6" t="n">
+        <v/>
       </c>
     </row>
     <row r="7">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>355.6</v>
+        <v>465.1</v>
       </c>
       <c r="D7" t="n">
         <v>365</v>
@@ -675,8 +675,8 @@
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="I7" t="n">
+        <v/>
       </c>
     </row>
     <row r="8">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>404.3</v>
+        <v>513.8</v>
       </c>
       <c r="D8" t="n">
         <v>365</v>
@@ -710,8 +710,8 @@
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="I8" t="n">
+        <v/>
       </c>
     </row>
     <row r="9">
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>472.6</v>
+        <v>578.2</v>
       </c>
       <c r="D9" t="n">
         <v>352</v>
@@ -745,8 +745,8 @@
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="I9" t="n">
+        <v/>
       </c>
     </row>
     <row r="10">
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>380.9</v>
+        <v>485.3</v>
       </c>
       <c r="D10" t="n">
         <v>348</v>
@@ -780,8 +780,8 @@
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="I10" t="n">
+        <v/>
       </c>
     </row>
     <row r="11">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>337.1</v>
+        <v>459.5</v>
       </c>
       <c r="D11" t="n">
         <v>408</v>
@@ -815,8 +815,8 @@
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="I11" t="n">
+        <v/>
       </c>
     </row>
     <row r="12">
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>366.3</v>
+        <v>503.7</v>
       </c>
       <c r="D12" t="n">
         <v>458</v>
@@ -850,8 +850,8 @@
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="I12" t="n">
+        <v/>
       </c>
     </row>
     <row r="13">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>487.1</v>
+        <v>617.9</v>
       </c>
       <c r="D13" t="n">
         <v>436</v>
@@ -885,8 +885,8 @@
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="I13" t="n">
+        <v/>
       </c>
     </row>
     <row r="14">
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>462.9</v>
+        <v>594</v>
       </c>
       <c r="D14" t="n">
         <v>437</v>
@@ -920,8 +920,8 @@
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="I14" t="n">
+        <v/>
       </c>
     </row>
     <row r="15">
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>421.1</v>
+        <v>549.5</v>
       </c>
       <c r="D15" t="n">
         <v>428</v>
@@ -955,8 +955,8 @@
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="I15" t="n">
+        <v/>
       </c>
     </row>
     <row r="16">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>381.8</v>
+        <v>506.6</v>
       </c>
       <c r="D16" t="n">
         <v>416</v>
@@ -990,8 +990,8 @@
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="I16" t="n">
+        <v/>
       </c>
     </row>
     <row r="17">
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>445.6</v>
+        <v>566.5</v>
       </c>
       <c r="D17" t="n">
         <v>403</v>
@@ -1025,8 +1025,8 @@
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="I17" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>6335</t>
+          <t>8493</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3052</t>
+          <t>4210</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1479</t>
+          <t>2203</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>623</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2024-12-01</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>450</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2024-12-29</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B083TZ68H1.xlsx
+++ b/Sufficient data/forecast_summary_B083TZ68H1.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>623.3</v>
+        <v>898.1</v>
       </c>
       <c r="D2" t="n">
         <v>980</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>522.3</v>
+        <v>522.8</v>
       </c>
       <c r="D3" t="n">
         <v>534</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>525.7</v>
+        <v>448.25</v>
       </c>
       <c r="D5" t="n">
         <v>382</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>450.1</v>
+        <v>379.9</v>
       </c>
       <c r="D6" t="n">
         <v>364</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>465.1</v>
+        <v>368.6</v>
       </c>
       <c r="D7" t="n">
         <v>365</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>513.8</v>
+        <v>373.15</v>
       </c>
       <c r="D8" t="n">
         <v>365</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>578.2</v>
+        <v>423.3</v>
       </c>
       <c r="D9" t="n">
         <v>352</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>485.3</v>
+        <v>367</v>
       </c>
       <c r="D10" t="n">
         <v>348</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>459.5</v>
+        <v>407.15</v>
       </c>
       <c r="D11" t="n">
         <v>408</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>503.7</v>
+        <v>455.4</v>
       </c>
       <c r="D12" t="n">
         <v>458</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>617.9</v>
+        <v>497.7</v>
       </c>
       <c r="D13" t="n">
         <v>436</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>594</v>
+        <v>444.1</v>
       </c>
       <c r="D14" t="n">
         <v>437</v>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>549.5</v>
+        <v>424.95</v>
       </c>
       <c r="D15" t="n">
         <v>428</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>506.6</v>
+        <v>420.25</v>
       </c>
       <c r="D16" t="n">
         <v>416</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>566.5</v>
+        <v>469.9</v>
       </c>
       <c r="D17" t="n">
         <v>403</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>8493</t>
+          <t>7432</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4210</t>
+          <t>3946</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2203</t>
+          <t>2401</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>623</t>
+          <t>898</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>367</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024-12-29</t>
+          <t>2025-01-26</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B083TZ68H1.xlsx
+++ b/Sufficient data/forecast_summary_B083TZ68H1.xlsx
@@ -500,8 +500,8 @@
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v/>
+      <c r="I2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -535,8 +535,8 @@
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v/>
+      <c r="I3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -570,8 +570,8 @@
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v/>
+      <c r="I4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -605,8 +605,8 @@
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v/>
+      <c r="I5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -640,8 +640,8 @@
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v/>
+      <c r="I6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -675,8 +675,8 @@
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v/>
+      <c r="I7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -710,8 +710,8 @@
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I8" t="n">
-        <v/>
+      <c r="I8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -745,8 +745,8 @@
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v/>
+      <c r="I9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -780,8 +780,8 @@
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I10" t="n">
-        <v/>
+      <c r="I10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -815,8 +815,8 @@
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I11" t="n">
-        <v/>
+      <c r="I11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -850,8 +850,8 @@
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v/>
+      <c r="I12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -885,8 +885,8 @@
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I13" t="n">
-        <v/>
+      <c r="I13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,8 +920,8 @@
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I14" t="n">
-        <v/>
+      <c r="I14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -955,8 +955,8 @@
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I15" t="n">
-        <v/>
+      <c r="I15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -990,8 +990,8 @@
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I16" t="n">
-        <v/>
+      <c r="I16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1025,8 +1025,8 @@
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I17" t="n">
-        <v/>
+      <c r="I17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Sufficient data/forecast_summary_B083TZ68H1.xlsx
+++ b/Sufficient data/forecast_summary_B083TZ68H1.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>898.1</v>
+        <v>623.8</v>
       </c>
       <c r="D2" t="n">
         <v>980</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>448.25</v>
+        <v>526.2</v>
       </c>
       <c r="D5" t="n">
         <v>382</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>379.9</v>
+        <v>450.6</v>
       </c>
       <c r="D6" t="n">
         <v>364</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>407.15</v>
+        <v>459.5</v>
       </c>
       <c r="D11" t="n">
         <v>408</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>455.4</v>
+        <v>503.2</v>
       </c>
       <c r="D12" t="n">
         <v>458</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>420.25</v>
+        <v>507.6</v>
       </c>
       <c r="D16" t="n">
         <v>416</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>469.9</v>
+        <v>567.5</v>
       </c>
       <c r="D17" t="n">
         <v>403</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>7432</t>
+          <t>7591</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3946</t>
+          <t>3820</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2401</t>
+          <t>2204</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>898</t>
+          <t>624</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B083TZ68H1.xlsx
+++ b/Sufficient data/forecast_summary_B083TZ68H1.xlsx
@@ -435,7 +435,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Prophet Forecast</t>
+          <t>MyForecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>623.8</v>
+        <v>624</v>
       </c>
       <c r="D2" t="n">
         <v>980</v>
@@ -500,7 +500,7 @@
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I2" t="b">
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>522.8</v>
+        <v>523</v>
       </c>
       <c r="D3" t="n">
         <v>534</v>
@@ -535,7 +535,7 @@
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I3" t="b">
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>531.4</v>
+        <v>531</v>
       </c>
       <c r="D4" t="n">
         <v>517</v>
@@ -570,7 +570,7 @@
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I4" t="b">
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>526.2</v>
+        <v>526</v>
       </c>
       <c r="D5" t="n">
         <v>382</v>
@@ -605,7 +605,7 @@
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I5" t="b">
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>450.6</v>
+        <v>451</v>
       </c>
       <c r="D6" t="n">
         <v>364</v>
@@ -640,7 +640,7 @@
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I6" t="b">
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>368.6</v>
+        <v>369</v>
       </c>
       <c r="D7" t="n">
         <v>365</v>
@@ -675,7 +675,7 @@
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I7" t="b">
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>373.15</v>
+        <v>373</v>
       </c>
       <c r="D8" t="n">
         <v>365</v>
@@ -710,7 +710,7 @@
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I8" t="b">
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>423.3</v>
+        <v>423</v>
       </c>
       <c r="D9" t="n">
         <v>352</v>
@@ -745,7 +745,7 @@
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I9" t="b">
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -780,7 +780,7 @@
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I10" t="b">
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>459.5</v>
+        <v>460</v>
       </c>
       <c r="D11" t="n">
         <v>408</v>
@@ -815,7 +815,7 @@
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I11" t="b">
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>503.2</v>
+        <v>503</v>
       </c>
       <c r="D12" t="n">
         <v>458</v>
@@ -850,7 +850,7 @@
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I12" t="b">
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>497.7</v>
+        <v>498</v>
       </c>
       <c r="D13" t="n">
         <v>436</v>
@@ -885,7 +885,7 @@
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I13" t="b">
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>444.1</v>
+        <v>444</v>
       </c>
       <c r="D14" t="n">
         <v>437</v>
@@ -920,7 +920,7 @@
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I14" t="b">
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>424.95</v>
+        <v>425</v>
       </c>
       <c r="D15" t="n">
         <v>428</v>
@@ -955,7 +955,7 @@
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I15" t="b">
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>507.6</v>
+        <v>508</v>
       </c>
       <c r="D16" t="n">
         <v>416</v>
@@ -990,7 +990,7 @@
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I16" t="b">
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>567.5</v>
+        <v>568</v>
       </c>
       <c r="D17" t="n">
         <v>403</v>
@@ -1025,7 +1025,7 @@
           <t>B650 EAGLE AX</t>
         </is>
       </c>
-      <c r="I17" t="b">
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B083TZ68H1.xlsx
+++ b/Sufficient data/forecast_summary_B083TZ68H1.xlsx
@@ -481,19 +481,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>624</v>
+        <v>675</v>
       </c>
       <c r="D2" t="n">
-        <v>980</v>
+        <v>958</v>
       </c>
       <c r="E2" t="n">
-        <v>1196</v>
+        <v>1127</v>
       </c>
       <c r="F2" t="n">
-        <v>1474</v>
+        <v>1283</v>
       </c>
       <c r="G2" t="n">
-        <v>1924</v>
+        <v>1521</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -516,19 +516,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>523</v>
+        <v>698</v>
       </c>
       <c r="D3" t="n">
-        <v>534</v>
+        <v>855</v>
       </c>
       <c r="E3" t="n">
-        <v>650</v>
+        <v>1024</v>
       </c>
       <c r="F3" t="n">
-        <v>786</v>
+        <v>1197</v>
       </c>
       <c r="G3" t="n">
-        <v>1004</v>
+        <v>1466</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -551,19 +551,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>531</v>
+        <v>684</v>
       </c>
       <c r="D4" t="n">
-        <v>517</v>
+        <v>825</v>
       </c>
       <c r="E4" t="n">
-        <v>624</v>
+        <v>993</v>
       </c>
       <c r="F4" t="n">
-        <v>739</v>
+        <v>1170</v>
       </c>
       <c r="G4" t="n">
-        <v>920</v>
+        <v>1447</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -586,19 +586,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>526</v>
+        <v>678</v>
       </c>
       <c r="D5" t="n">
-        <v>382</v>
+        <v>766</v>
       </c>
       <c r="E5" t="n">
-        <v>457</v>
+        <v>926</v>
       </c>
       <c r="F5" t="n">
-        <v>533</v>
+        <v>1101</v>
       </c>
       <c r="G5" t="n">
-        <v>652</v>
+        <v>1377</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -621,19 +621,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>451</v>
+        <v>525</v>
       </c>
       <c r="D6" t="n">
-        <v>364</v>
+        <v>583</v>
       </c>
       <c r="E6" t="n">
-        <v>439</v>
+        <v>704</v>
       </c>
       <c r="F6" t="n">
-        <v>520</v>
+        <v>838</v>
       </c>
       <c r="G6" t="n">
-        <v>648</v>
+        <v>1049</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>369</v>
+        <v>558</v>
       </c>
       <c r="D7" t="n">
-        <v>365</v>
+        <v>583</v>
       </c>
       <c r="E7" t="n">
-        <v>439</v>
+        <v>703</v>
       </c>
       <c r="F7" t="n">
-        <v>517</v>
+        <v>834</v>
       </c>
       <c r="G7" t="n">
-        <v>640</v>
+        <v>1039</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -691,19 +691,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>373</v>
+        <v>629</v>
       </c>
       <c r="D8" t="n">
-        <v>365</v>
+        <v>548</v>
       </c>
       <c r="E8" t="n">
-        <v>436</v>
+        <v>664</v>
       </c>
       <c r="F8" t="n">
-        <v>510</v>
+        <v>795</v>
       </c>
       <c r="G8" t="n">
-        <v>624</v>
+        <v>1002</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -726,19 +726,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>423</v>
+        <v>730</v>
       </c>
       <c r="D9" t="n">
-        <v>352</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>422</v>
+        <v>689</v>
       </c>
       <c r="F9" t="n">
-        <v>494</v>
+        <v>822</v>
       </c>
       <c r="G9" t="n">
-        <v>606</v>
+        <v>1034</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -761,19 +761,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>367</v>
+        <v>604</v>
       </c>
       <c r="D10" t="n">
-        <v>348</v>
+        <v>551</v>
       </c>
       <c r="E10" t="n">
-        <v>422</v>
+        <v>665</v>
       </c>
       <c r="F10" t="n">
-        <v>504</v>
+        <v>790</v>
       </c>
       <c r="G10" t="n">
-        <v>633</v>
+        <v>988</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -796,19 +796,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>460</v>
+        <v>536</v>
       </c>
       <c r="D11" t="n">
-        <v>408</v>
+        <v>539</v>
       </c>
       <c r="E11" t="n">
-        <v>498</v>
+        <v>653</v>
       </c>
       <c r="F11" t="n">
-        <v>611</v>
+        <v>781</v>
       </c>
       <c r="G11" t="n">
-        <v>794</v>
+        <v>985</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -831,19 +831,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>503</v>
+        <v>557</v>
       </c>
       <c r="D12" t="n">
-        <v>458</v>
+        <v>512</v>
       </c>
       <c r="E12" t="n">
-        <v>560</v>
+        <v>624</v>
       </c>
       <c r="F12" t="n">
-        <v>698</v>
+        <v>762</v>
       </c>
       <c r="G12" t="n">
-        <v>925</v>
+        <v>984</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -866,19 +866,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>498</v>
+        <v>703</v>
       </c>
       <c r="D13" t="n">
-        <v>436</v>
+        <v>517</v>
       </c>
       <c r="E13" t="n">
-        <v>533</v>
+        <v>630</v>
       </c>
       <c r="F13" t="n">
-        <v>668</v>
+        <v>767</v>
       </c>
       <c r="G13" t="n">
-        <v>888</v>
+        <v>987</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -901,19 +901,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>444</v>
+        <v>504</v>
       </c>
       <c r="D14" t="n">
-        <v>437</v>
+        <v>510</v>
       </c>
       <c r="E14" t="n">
-        <v>534</v>
+        <v>619</v>
       </c>
       <c r="F14" t="n">
-        <v>665</v>
+        <v>747</v>
       </c>
       <c r="G14" t="n">
-        <v>878</v>
+        <v>950</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -936,19 +936,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>425</v>
+        <v>575</v>
       </c>
       <c r="D15" t="n">
-        <v>428</v>
+        <v>496</v>
       </c>
       <c r="E15" t="n">
-        <v>524</v>
+        <v>603</v>
       </c>
       <c r="F15" t="n">
-        <v>655</v>
+        <v>731</v>
       </c>
       <c r="G15" t="n">
-        <v>870</v>
+        <v>934</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -971,19 +971,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="D16" t="n">
-        <v>416</v>
+        <v>475</v>
       </c>
       <c r="E16" t="n">
-        <v>508</v>
+        <v>579</v>
       </c>
       <c r="F16" t="n">
-        <v>645</v>
+        <v>713</v>
       </c>
       <c r="G16" t="n">
-        <v>871</v>
+        <v>928</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1006,19 +1006,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>568</v>
+        <v>615</v>
       </c>
       <c r="D17" t="n">
-        <v>403</v>
+        <v>492</v>
       </c>
       <c r="E17" t="n">
-        <v>493</v>
+        <v>599</v>
       </c>
       <c r="F17" t="n">
-        <v>621</v>
+        <v>731</v>
       </c>
       <c r="G17" t="n">
-        <v>830</v>
+        <v>942</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-02-04 to 2024-11-24</t>
+          <t>2024-02-04 to 2024-12-29</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>648</t>
+          <t>724</t>
         </is>
       </c>
     </row>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>268</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>248</t>
         </is>
       </c>
     </row>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>234</t>
         </is>
       </c>
     </row>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>9084 units</t>
+          <t>12856 units</t>
         </is>
       </c>
     </row>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>7591</t>
+          <t>9783</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3820</t>
+          <t>5177</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2204</t>
+          <t>2735</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>624</t>
+          <t>730</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2025-02-23</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>504</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-03-30</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B083TZ68H1.xlsx
+++ b/Sufficient data/forecast_summary_B083TZ68H1.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D2" t="n">
         <v>958</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D3" t="n">
         <v>855</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D6" t="n">
         <v>583</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D8" t="n">
         <v>548</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D9" t="n">
         <v>569</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D13" t="n">
         <v>517</v>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D15" t="n">
         <v>496</v>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5177</t>
+          <t>5178</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>730</t>
+          <t>731</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B083TZ68H1.xlsx
+++ b/Sufficient data/forecast_summary_B083TZ68H1.xlsx
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D3" t="n">
         <v>855</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="D4" t="n">
         <v>825</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="D5" t="n">
         <v>766</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D6" t="n">
         <v>583</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="D7" t="n">
         <v>583</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D10" t="n">
         <v>551</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D12" t="n">
         <v>512</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D13" t="n">
         <v>517</v>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D15" t="n">
         <v>496</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>9783</t>
+          <t>9785</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B083TZ68H1.xlsx
+++ b/Sufficient data/forecast_summary_B083TZ68H1.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,40 +430,45 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>Week_Start_Date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>ASIN</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>MyForecast</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Amazon Mean Forecast</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Amazon P70 Forecast</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Amazon P80 Forecast</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Amazon P90 Forecast</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Product Title</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>is_holiday_week</t>
         </is>
@@ -472,315 +477,360 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>W01</t>
+          <t>W1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B083TZ68H1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>676</v>
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>B083TZ68H1</t>
+        </is>
       </c>
       <c r="D2" t="n">
+        <v>675</v>
+      </c>
+      <c r="E2" t="n">
         <v>958</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>1127</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>1283</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>1521</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>B650 EAGLE AX</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>B650 EAGLE AX</t>
+        </is>
+      </c>
+      <c r="J2" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>W02</t>
+          <t>W2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B083TZ68H1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>695</v>
+          <t>2025-01-12</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>B083TZ68H1</t>
+        </is>
       </c>
       <c r="D3" t="n">
+        <v>698</v>
+      </c>
+      <c r="E3" t="n">
         <v>855</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>1024</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>1197</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>1466</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>B650 EAGLE AX</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>B650 EAGLE AX</t>
+        </is>
+      </c>
+      <c r="J3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>W03</t>
+          <t>W3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B083TZ68H1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>685</v>
+          <t>2025-01-19</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>B083TZ68H1</t>
+        </is>
       </c>
       <c r="D4" t="n">
+        <v>684</v>
+      </c>
+      <c r="E4" t="n">
         <v>825</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>993</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>1170</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>1447</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>B650 EAGLE AX</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>B650 EAGLE AX</t>
+        </is>
+      </c>
+      <c r="J4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>W04</t>
+          <t>W4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B083TZ68H1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>2025-01-26</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>B083TZ68H1</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>680</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>766</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>926</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>1101</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>1377</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>B650 EAGLE AX</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>B650 EAGLE AX</t>
+        </is>
+      </c>
+      <c r="J5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>W05</t>
+          <t>W5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B083TZ68H1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>522</v>
+          <t>2025-02-02</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>B083TZ68H1</t>
+        </is>
       </c>
       <c r="D6" t="n">
+        <v>523</v>
+      </c>
+      <c r="E6" t="n">
         <v>583</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>704</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>838</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>1049</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>B650 EAGLE AX</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>B650 EAGLE AX</t>
+        </is>
+      </c>
+      <c r="J6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>W06</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>B083TZ68H1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>560</v>
+          <t>2025-02-09</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>B083TZ68H1</t>
+        </is>
       </c>
       <c r="D7" t="n">
+        <v>558</v>
+      </c>
+      <c r="E7" t="n">
         <v>583</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>703</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>834</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>1039</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>B650 EAGLE AX</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>B650 EAGLE AX</t>
+        </is>
+      </c>
+      <c r="J7" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>W07</t>
+          <t>W7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>B083TZ68H1</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>B083TZ68H1</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>630</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>548</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>664</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>795</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>1002</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>B650 EAGLE AX</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>B650 EAGLE AX</t>
+        </is>
+      </c>
+      <c r="J8" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>W08</t>
+          <t>W8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>B083TZ68H1</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>731</v>
+          <t>2025-02-23</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>B083TZ68H1</t>
+        </is>
       </c>
       <c r="D9" t="n">
+        <v>730</v>
+      </c>
+      <c r="E9" t="n">
         <v>569</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>689</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>822</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>1034</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>B650 EAGLE AX</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>B650 EAGLE AX</t>
+        </is>
+      </c>
+      <c r="J9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>W09</t>
+          <t>W9</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>B083TZ68H1</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>603</v>
+          <t>2025-03-02</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>B083TZ68H1</t>
+        </is>
       </c>
       <c r="D10" t="n">
+        <v>602</v>
+      </c>
+      <c r="E10" t="n">
         <v>551</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>665</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>790</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>988</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>B650 EAGLE AX</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>B650 EAGLE AX</t>
+        </is>
+      </c>
+      <c r="J10" t="b">
         <v>0</v>
       </c>
     </row>
@@ -792,30 +842,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>B083TZ68H1</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>536</v>
+          <t>2025-03-09</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>B083TZ68H1</t>
+        </is>
       </c>
       <c r="D11" t="n">
+        <v>537</v>
+      </c>
+      <c r="E11" t="n">
         <v>539</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>653</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>781</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>985</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>B650 EAGLE AX</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>B650 EAGLE AX</t>
+        </is>
+      </c>
+      <c r="J11" t="b">
         <v>0</v>
       </c>
     </row>
@@ -827,30 +882,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>B083TZ68H1</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+          <t>2025-03-16</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>B083TZ68H1</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
         <v>558</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>512</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>624</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>762</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>984</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>B650 EAGLE AX</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>B650 EAGLE AX</t>
+        </is>
+      </c>
+      <c r="J12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -862,30 +922,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>B083TZ68H1</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>701</v>
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>B083TZ68H1</t>
+        </is>
       </c>
       <c r="D13" t="n">
+        <v>703</v>
+      </c>
+      <c r="E13" t="n">
         <v>517</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>630</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>767</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>987</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>B650 EAGLE AX</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>B650 EAGLE AX</t>
+        </is>
+      </c>
+      <c r="J13" t="b">
         <v>0</v>
       </c>
     </row>
@@ -897,30 +962,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>B083TZ68H1</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+          <t>2025-03-30</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>B083TZ68H1</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>504</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>510</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>619</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>747</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>950</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>B650 EAGLE AX</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>B650 EAGLE AX</t>
+        </is>
+      </c>
+      <c r="J14" t="b">
         <v>0</v>
       </c>
     </row>
@@ -932,30 +1002,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>B083TZ68H1</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>577</v>
+          <t>2025-04-06</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>B083TZ68H1</t>
+        </is>
       </c>
       <c r="D15" t="n">
+        <v>576</v>
+      </c>
+      <c r="E15" t="n">
         <v>496</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>603</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>731</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>934</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>B650 EAGLE AX</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>B650 EAGLE AX</t>
+        </is>
+      </c>
+      <c r="J15" t="b">
         <v>0</v>
       </c>
     </row>
@@ -967,30 +1042,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>B083TZ68H1</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>512</v>
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>B083TZ68H1</t>
+        </is>
       </c>
       <c r="D16" t="n">
+        <v>514</v>
+      </c>
+      <c r="E16" t="n">
         <v>475</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>579</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>713</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>928</v>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>B650 EAGLE AX</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>B650 EAGLE AX</t>
+        </is>
+      </c>
+      <c r="J16" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1002,30 +1082,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>B083TZ68H1</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>615</v>
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>B083TZ68H1</t>
+        </is>
       </c>
       <c r="D17" t="n">
+        <v>616</v>
+      </c>
+      <c r="E17" t="n">
         <v>492</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>599</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>731</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>942</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>B650 EAGLE AX</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>B650 EAGLE AX</t>
+        </is>
+      </c>
+      <c r="J17" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1152,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>9785</t>
+          <t>9786</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5178</t>
+          <t>5176</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2735</t>
+          <t>2736</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>731</t>
+          <t>730</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B083TZ68H1.xlsx
+++ b/Sufficient data/forecast_summary_B083TZ68H1.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E3" t="n">
         <v>855</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E5" t="n">
         <v>766</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E6" t="n">
         <v>583</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E8" t="n">
         <v>548</v>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="E9" t="n">
         <v>569</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E11" t="n">
         <v>539</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E12" t="n">
         <v>512</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E13" t="n">
         <v>517</v>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E15" t="n">
         <v>496</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E16" t="n">
         <v>475</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E17" t="n">
         <v>492</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>9786</t>
+          <t>9785</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5176</t>
+          <t>5180</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2736</t>
+          <t>2737</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>730</t>
+          <t>732</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B083TZ68H1.xlsx
+++ b/Sufficient data/forecast_summary_B083TZ68H1.xlsx
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E4" t="n">
         <v>825</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E5" t="n">
         <v>766</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E6" t="n">
         <v>583</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E7" t="n">
         <v>583</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="E8" t="n">
         <v>548</v>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E9" t="n">
         <v>569</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E11" t="n">
         <v>539</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="E13" t="n">
         <v>517</v>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E15" t="n">
         <v>496</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E16" t="n">
         <v>475</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>9785</t>
+          <t>9783</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5180</t>
+          <t>5178</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2737</t>
+          <t>2734</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>732</t>
+          <t>731</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B083TZ68H1.xlsx
+++ b/Sufficient data/forecast_summary_B083TZ68H1.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2025-01-12</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>675</v>
+        <v>751</v>
       </c>
       <c r="E2" t="n">
         <v>958</v>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="E3" t="n">
         <v>855</v>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>683</v>
+        <v>558</v>
       </c>
       <c r="E4" t="n">
         <v>825</v>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>680</v>
+        <v>536</v>
       </c>
       <c r="E5" t="n">
         <v>766</v>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>522</v>
+        <v>665</v>
       </c>
       <c r="E6" t="n">
         <v>583</v>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>559</v>
+        <v>801</v>
       </c>
       <c r="E7" t="n">
         <v>583</v>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>632</v>
+        <v>792</v>
       </c>
       <c r="E8" t="n">
         <v>548</v>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>731</v>
+        <v>662</v>
       </c>
       <c r="E9" t="n">
         <v>569</v>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="E10" t="n">
         <v>551</v>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>537</v>
+        <v>670</v>
       </c>
       <c r="E11" t="n">
         <v>539</v>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>557</v>
+        <v>805</v>
       </c>
       <c r="E12" t="n">
         <v>512</v>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>703</v>
+        <v>819</v>
       </c>
       <c r="E13" t="n">
         <v>517</v>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>504</v>
+        <v>682</v>
       </c>
       <c r="E14" t="n">
         <v>510</v>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="E15" t="n">
         <v>496</v>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>511</v>
+        <v>649</v>
       </c>
       <c r="E16" t="n">
         <v>475</v>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>614</v>
+        <v>537</v>
       </c>
       <c r="E17" t="n">
         <v>492</v>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-02-04 to 2024-12-29</t>
+          <t>2024-02-04 to 2025-01-05</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>724</t>
+          <t>728</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>278</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>253</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>242</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>12856 units</t>
+          <t>13610 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>9783</t>
+          <t>10780</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5178</t>
+          <t>5452</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2734</t>
+          <t>2532</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>731</t>
+          <t>819</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>504</t>
+          <t>536</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-02-02</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B083TZ68H1.xlsx
+++ b/Sufficient data/forecast_summary_B083TZ68H1.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,19 +491,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>751</v>
+        <v>666</v>
       </c>
       <c r="E2" t="n">
-        <v>958</v>
+        <v>951</v>
       </c>
       <c r="F2" t="n">
-        <v>1127</v>
+        <v>1091</v>
       </c>
       <c r="G2" t="n">
-        <v>1283</v>
+        <v>1209</v>
       </c>
       <c r="H2" t="n">
-        <v>1521</v>
+        <v>1385</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,19 +531,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>687</v>
+        <v>632</v>
       </c>
       <c r="E3" t="n">
-        <v>855</v>
+        <v>871</v>
       </c>
       <c r="F3" t="n">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="G3" t="n">
-        <v>1197</v>
+        <v>1169</v>
       </c>
       <c r="H3" t="n">
-        <v>1466</v>
+        <v>1388</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,19 +571,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>558</v>
+        <v>632</v>
       </c>
       <c r="E4" t="n">
-        <v>825</v>
+        <v>702</v>
       </c>
       <c r="F4" t="n">
-        <v>993</v>
+        <v>824</v>
       </c>
       <c r="G4" t="n">
-        <v>1170</v>
+        <v>936</v>
       </c>
       <c r="H4" t="n">
-        <v>1447</v>
+        <v>1107</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,19 +611,19 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>536</v>
+        <v>553</v>
       </c>
       <c r="E5" t="n">
-        <v>766</v>
+        <v>605</v>
       </c>
       <c r="F5" t="n">
-        <v>926</v>
+        <v>715</v>
       </c>
       <c r="G5" t="n">
-        <v>1101</v>
+        <v>818</v>
       </c>
       <c r="H5" t="n">
-        <v>1377</v>
+        <v>978</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,19 +651,19 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>665</v>
+        <v>585</v>
       </c>
       <c r="E6" t="n">
-        <v>583</v>
+        <v>628</v>
       </c>
       <c r="F6" t="n">
-        <v>704</v>
+        <v>746</v>
       </c>
       <c r="G6" t="n">
-        <v>838</v>
+        <v>861</v>
       </c>
       <c r="H6" t="n">
-        <v>1049</v>
+        <v>1038</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,19 +691,19 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>801</v>
+        <v>578</v>
       </c>
       <c r="E7" t="n">
-        <v>583</v>
+        <v>614</v>
       </c>
       <c r="F7" t="n">
-        <v>703</v>
+        <v>728</v>
       </c>
       <c r="G7" t="n">
-        <v>834</v>
+        <v>839</v>
       </c>
       <c r="H7" t="n">
-        <v>1039</v>
+        <v>1010</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,19 +731,19 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>792</v>
+        <v>571</v>
       </c>
       <c r="E8" t="n">
-        <v>548</v>
+        <v>581</v>
       </c>
       <c r="F8" t="n">
-        <v>664</v>
+        <v>694</v>
       </c>
       <c r="G8" t="n">
-        <v>795</v>
+        <v>807</v>
       </c>
       <c r="H8" t="n">
-        <v>1002</v>
+        <v>982</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,19 +771,19 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>662</v>
+        <v>632</v>
       </c>
       <c r="E9" t="n">
-        <v>569</v>
+        <v>613</v>
       </c>
       <c r="F9" t="n">
-        <v>689</v>
+        <v>731</v>
       </c>
       <c r="G9" t="n">
-        <v>822</v>
+        <v>848</v>
       </c>
       <c r="H9" t="n">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,19 +811,19 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>588</v>
+        <v>573</v>
       </c>
       <c r="E10" t="n">
-        <v>551</v>
+        <v>577</v>
       </c>
       <c r="F10" t="n">
-        <v>665</v>
+        <v>687</v>
       </c>
       <c r="G10" t="n">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="H10" t="n">
-        <v>988</v>
+        <v>960</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,19 +851,19 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>670</v>
+        <v>594</v>
       </c>
       <c r="E11" t="n">
-        <v>539</v>
+        <v>559</v>
       </c>
       <c r="F11" t="n">
-        <v>653</v>
+        <v>667</v>
       </c>
       <c r="G11" t="n">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="H11" t="n">
-        <v>985</v>
+        <v>947</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,19 +891,19 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>805</v>
+        <v>582</v>
       </c>
       <c r="E12" t="n">
-        <v>512</v>
+        <v>531</v>
       </c>
       <c r="F12" t="n">
-        <v>624</v>
+        <v>641</v>
       </c>
       <c r="G12" t="n">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H12" t="n">
-        <v>984</v>
+        <v>955</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,19 +931,19 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>819</v>
+        <v>581</v>
       </c>
       <c r="E13" t="n">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="F13" t="n">
-        <v>630</v>
+        <v>641</v>
       </c>
       <c r="G13" t="n">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="H13" t="n">
-        <v>987</v>
+        <v>948</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,19 +971,19 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>682</v>
+        <v>626</v>
       </c>
       <c r="E14" t="n">
-        <v>510</v>
+        <v>533</v>
       </c>
       <c r="F14" t="n">
-        <v>619</v>
+        <v>639</v>
       </c>
       <c r="G14" t="n">
         <v>747</v>
       </c>
       <c r="H14" t="n">
-        <v>950</v>
+        <v>917</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,19 +1011,19 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="E15" t="n">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="F15" t="n">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="G15" t="n">
-        <v>731</v>
+        <v>717</v>
       </c>
       <c r="H15" t="n">
-        <v>934</v>
+        <v>890</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>649</v>
+        <v>465</v>
       </c>
       <c r="E16" t="n">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="F16" t="n">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="G16" t="n">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="H16" t="n">
-        <v>928</v>
+        <v>893</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,19 +1091,19 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>537</v>
+        <v>464</v>
       </c>
       <c r="E17" t="n">
         <v>492</v>
       </c>
       <c r="F17" t="n">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="G17" t="n">
-        <v>731</v>
+        <v>712</v>
       </c>
       <c r="H17" t="n">
-        <v>942</v>
+        <v>897</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-02-04 to 2025-01-05</t>
+          <t>2024-02-04 to 2025-01-12</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>728</t>
+          <t>786</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>296</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>258</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>265</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>13610 units</t>
+          <t>14802 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>10780</t>
+          <t>9305</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5452</t>
+          <t>4848</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2532</t>
+          <t>2483</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>819</t>
+          <t>666</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-01-19</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>536</t>
+          <t>464</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-05-04</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B083TZ68H1.xlsx
+++ b/Sufficient data/forecast_summary_B083TZ68H1.xlsx
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E6" t="n">
         <v>628</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E7" t="n">
         <v>614</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E10" t="n">
         <v>577</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E11" t="n">
         <v>559</v>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E15" t="n">
         <v>504</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>465</v>
+        <v>589</v>
       </c>
       <c r="E16" t="n">
         <v>485</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>464</v>
+        <v>590</v>
       </c>
       <c r="E17" t="n">
         <v>492</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>9305</t>
+          <t>9552</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4848</t>
+          <t>4849</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2483</t>
+          <t>2484</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>553</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-02-09</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B083TZ68H1.xlsx
+++ b/Sufficient data/forecast_summary_B083TZ68H1.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>666</v>
+        <v>627</v>
       </c>
       <c r="E2" t="n">
         <v>951</v>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="E3" t="n">
         <v>871</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="E4" t="n">
         <v>702</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>553</v>
+        <v>652</v>
       </c>
       <c r="E5" t="n">
         <v>605</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>586</v>
+        <v>684</v>
       </c>
       <c r="E6" t="n">
         <v>628</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>576</v>
+        <v>695</v>
       </c>
       <c r="E7" t="n">
         <v>614</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>571</v>
+        <v>680</v>
       </c>
       <c r="E8" t="n">
         <v>581</v>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>632</v>
+        <v>678</v>
       </c>
       <c r="E9" t="n">
         <v>613</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>572</v>
+        <v>703</v>
       </c>
       <c r="E10" t="n">
         <v>577</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>593</v>
+        <v>736</v>
       </c>
       <c r="E11" t="n">
         <v>559</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>582</v>
+        <v>745</v>
       </c>
       <c r="E12" t="n">
         <v>531</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>581</v>
+        <v>725</v>
       </c>
       <c r="E13" t="n">
         <v>531</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>626</v>
+        <v>716</v>
       </c>
       <c r="E14" t="n">
         <v>533</v>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>572</v>
+        <v>749</v>
       </c>
       <c r="E15" t="n">
         <v>504</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>589</v>
+        <v>776</v>
       </c>
       <c r="E16" t="n">
         <v>485</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>590</v>
+        <v>787</v>
       </c>
       <c r="E17" t="n">
         <v>492</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>9552</t>
+          <t>11200</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4849</t>
+          <t>5263</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2484</t>
+          <t>2526</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>787</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-05-04</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>623</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-02</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B083TZ68H1.xlsx
+++ b/Sufficient data/forecast_summary_B083TZ68H1.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="E2" t="n">
         <v>951</v>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="E3" t="n">
         <v>871</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="E4" t="n">
         <v>702</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="E5" t="n">
         <v>605</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="E6" t="n">
         <v>628</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="E7" t="n">
         <v>614</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="E8" t="n">
         <v>581</v>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="E9" t="n">
         <v>613</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="E10" t="n">
         <v>577</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="E11" t="n">
         <v>559</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="E12" t="n">
         <v>531</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="E13" t="n">
         <v>531</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="E14" t="n">
         <v>533</v>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E15" t="n">
         <v>504</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>11200</t>
+          <t>11190</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5263</t>
+          <t>5246</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2526</t>
+          <t>2527</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>623</t>
+          <t>620</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-01-26</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B083TZ68H1.xlsx
+++ b/Sufficient data/forecast_summary_B083TZ68H1.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>629</v>
+        <v>1236</v>
       </c>
       <c r="E2" t="n">
         <v>951</v>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>620</v>
+        <v>1132</v>
       </c>
       <c r="E3" t="n">
         <v>871</v>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>624</v>
+        <v>491</v>
       </c>
       <c r="E4" t="n">
         <v>702</v>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>654</v>
+        <v>786</v>
       </c>
       <c r="E5" t="n">
         <v>605</v>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>679</v>
+        <v>816</v>
       </c>
       <c r="E6" t="n">
         <v>628</v>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>687</v>
+        <v>798</v>
       </c>
       <c r="E7" t="n">
         <v>614</v>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>674</v>
+        <v>755</v>
       </c>
       <c r="E8" t="n">
         <v>581</v>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>679</v>
+        <v>618</v>
       </c>
       <c r="E9" t="n">
         <v>613</v>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>705</v>
+        <v>407</v>
       </c>
       <c r="E10" t="n">
         <v>577</v>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>741</v>
+        <v>705</v>
       </c>
       <c r="E11" t="n">
         <v>559</v>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>746</v>
+        <v>690</v>
       </c>
       <c r="E12" t="n">
         <v>531</v>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>729</v>
+        <v>690</v>
       </c>
       <c r="E13" t="n">
         <v>531</v>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>712</v>
+        <v>500</v>
       </c>
       <c r="E14" t="n">
         <v>533</v>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>748</v>
+        <v>643</v>
       </c>
       <c r="E15" t="n">
         <v>504</v>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>776</v>
+        <v>630</v>
       </c>
       <c r="E16" t="n">
         <v>485</v>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>787</v>
+        <v>640</v>
       </c>
       <c r="E17" t="n">
         <v>492</v>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-02-04 to 2025-01-12</t>
+          <t>2024-02-04 to 2025-01-19</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>786</t>
+          <t>942</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>328</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>264</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>314</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>14802 units</t>
+          <t>16743 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>11190</t>
+          <t>11540</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5246</t>
+          <t>6634</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2527</t>
+          <t>3646</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>787</t>
+          <t>1236</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-01-26</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>620</t>
+          <t>407</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-03-23</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B083TZ68H1.xlsx
+++ b/Sufficient data/forecast_summary_B083TZ68H1.xlsx
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>321</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>303</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>16743 units</t>
+          <t>16350 units</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B083TZ68H1.xlsx
+++ b/Sufficient data/forecast_summary_B083TZ68H1.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,19 +491,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1236</v>
+        <v>598</v>
       </c>
       <c r="E2" t="n">
-        <v>951</v>
+        <v>673</v>
       </c>
       <c r="F2" t="n">
-        <v>1091</v>
+        <v>773</v>
       </c>
       <c r="G2" t="n">
-        <v>1209</v>
+        <v>857</v>
       </c>
       <c r="H2" t="n">
-        <v>1385</v>
+        <v>983</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,19 +531,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1132</v>
+        <v>614</v>
       </c>
       <c r="E3" t="n">
-        <v>871</v>
+        <v>571</v>
       </c>
       <c r="F3" t="n">
-        <v>1026</v>
+        <v>665</v>
       </c>
       <c r="G3" t="n">
-        <v>1169</v>
+        <v>749</v>
       </c>
       <c r="H3" t="n">
-        <v>1388</v>
+        <v>876</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,19 +571,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>491</v>
+        <v>638</v>
       </c>
       <c r="E4" t="n">
-        <v>702</v>
+        <v>575</v>
       </c>
       <c r="F4" t="n">
-        <v>824</v>
+        <v>677</v>
       </c>
       <c r="G4" t="n">
-        <v>936</v>
+        <v>771</v>
       </c>
       <c r="H4" t="n">
-        <v>1107</v>
+        <v>916</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,19 +611,19 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>786</v>
+        <v>653</v>
       </c>
       <c r="E5" t="n">
-        <v>605</v>
+        <v>533</v>
       </c>
       <c r="F5" t="n">
-        <v>715</v>
+        <v>632</v>
       </c>
       <c r="G5" t="n">
-        <v>818</v>
+        <v>727</v>
       </c>
       <c r="H5" t="n">
-        <v>978</v>
+        <v>873</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,19 +651,19 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>816</v>
+        <v>654</v>
       </c>
       <c r="E6" t="n">
-        <v>628</v>
+        <v>534</v>
       </c>
       <c r="F6" t="n">
-        <v>746</v>
+        <v>638</v>
       </c>
       <c r="G6" t="n">
-        <v>861</v>
+        <v>743</v>
       </c>
       <c r="H6" t="n">
-        <v>1038</v>
+        <v>905</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,19 +691,19 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>798</v>
+        <v>655</v>
       </c>
       <c r="E7" t="n">
-        <v>614</v>
+        <v>531</v>
       </c>
       <c r="F7" t="n">
-        <v>728</v>
+        <v>632</v>
       </c>
       <c r="G7" t="n">
-        <v>839</v>
+        <v>731</v>
       </c>
       <c r="H7" t="n">
-        <v>1010</v>
+        <v>885</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,19 +731,19 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>755</v>
+        <v>651</v>
       </c>
       <c r="E8" t="n">
-        <v>581</v>
+        <v>501</v>
       </c>
       <c r="F8" t="n">
-        <v>694</v>
+        <v>601</v>
       </c>
       <c r="G8" t="n">
-        <v>807</v>
+        <v>706</v>
       </c>
       <c r="H8" t="n">
-        <v>982</v>
+        <v>870</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,19 +771,19 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>618</v>
+        <v>663</v>
       </c>
       <c r="E9" t="n">
-        <v>613</v>
+        <v>510</v>
       </c>
       <c r="F9" t="n">
-        <v>731</v>
+        <v>611</v>
       </c>
       <c r="G9" t="n">
-        <v>848</v>
+        <v>713</v>
       </c>
       <c r="H9" t="n">
-        <v>1030</v>
+        <v>873</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,19 +811,19 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>407</v>
+        <v>644</v>
       </c>
       <c r="E10" t="n">
-        <v>577</v>
+        <v>495</v>
       </c>
       <c r="F10" t="n">
-        <v>687</v>
+        <v>590</v>
       </c>
       <c r="G10" t="n">
-        <v>794</v>
+        <v>686</v>
       </c>
       <c r="H10" t="n">
-        <v>960</v>
+        <v>834</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,19 +851,19 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>705</v>
+        <v>614</v>
       </c>
       <c r="E11" t="n">
-        <v>559</v>
+        <v>472</v>
       </c>
       <c r="F11" t="n">
-        <v>667</v>
+        <v>567</v>
       </c>
       <c r="G11" t="n">
-        <v>777</v>
+        <v>665</v>
       </c>
       <c r="H11" t="n">
-        <v>947</v>
+        <v>820</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,19 +891,19 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>690</v>
+        <v>598</v>
       </c>
       <c r="E12" t="n">
-        <v>531</v>
+        <v>460</v>
       </c>
       <c r="F12" t="n">
-        <v>641</v>
+        <v>556</v>
       </c>
       <c r="G12" t="n">
-        <v>763</v>
+        <v>661</v>
       </c>
       <c r="H12" t="n">
-        <v>955</v>
+        <v>826</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,19 +931,19 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>690</v>
+        <v>595</v>
       </c>
       <c r="E13" t="n">
-        <v>531</v>
+        <v>458</v>
       </c>
       <c r="F13" t="n">
-        <v>641</v>
+        <v>554</v>
       </c>
       <c r="G13" t="n">
-        <v>760</v>
+        <v>660</v>
       </c>
       <c r="H13" t="n">
-        <v>948</v>
+        <v>828</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,19 +971,19 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>500</v>
+        <v>606</v>
       </c>
       <c r="E14" t="n">
-        <v>533</v>
+        <v>466</v>
       </c>
       <c r="F14" t="n">
-        <v>639</v>
+        <v>561</v>
       </c>
       <c r="G14" t="n">
-        <v>747</v>
+        <v>661</v>
       </c>
       <c r="H14" t="n">
-        <v>917</v>
+        <v>819</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,19 +1011,19 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>643</v>
+        <v>551</v>
       </c>
       <c r="E15" t="n">
-        <v>504</v>
+        <v>424</v>
       </c>
       <c r="F15" t="n">
-        <v>607</v>
+        <v>512</v>
       </c>
       <c r="G15" t="n">
-        <v>717</v>
+        <v>610</v>
       </c>
       <c r="H15" t="n">
-        <v>890</v>
+        <v>764</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>630</v>
+        <v>530</v>
       </c>
       <c r="E16" t="n">
-        <v>485</v>
+        <v>408</v>
       </c>
       <c r="F16" t="n">
-        <v>588</v>
+        <v>496</v>
       </c>
       <c r="G16" t="n">
-        <v>706</v>
+        <v>603</v>
       </c>
       <c r="H16" t="n">
-        <v>893</v>
+        <v>774</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-05-11</t>
+          <t>2025-05-18</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,19 +1091,19 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>640</v>
+        <v>534</v>
       </c>
       <c r="E17" t="n">
-        <v>492</v>
+        <v>411</v>
       </c>
       <c r="F17" t="n">
-        <v>596</v>
+        <v>500</v>
       </c>
       <c r="G17" t="n">
-        <v>712</v>
+        <v>605</v>
       </c>
       <c r="H17" t="n">
-        <v>897</v>
+        <v>773</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-02-04 to 2025-01-19</t>
+          <t>2024-02-04 to 2025-01-26</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>942</t>
+          <t>1098</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>336</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>266</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>325</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>16350 units</t>
+          <t>17452 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>11540</t>
+          <t>9798</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>6634</t>
+          <t>5126</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3646</t>
+          <t>2503</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1236</t>
+          <t>663</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-03-23</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>530</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-05-11</t>
         </is>
       </c>
     </row>
